--- a/data/의사연령별분포.xlsx
+++ b/data/의사연령별분포.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\IITPMainProject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdew\Documents\GitHub\PANP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060940F4-5A31-44A8-B8B5-5D61F9DE54E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCBB0E8-2069-4415-A4EA-BEAECBE19A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EAE0E57E-AEB4-434D-982A-2E1527969A2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAE0E57E-AEB4-434D-982A-2E1527969A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
